--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1308571.197308417</v>
+        <v>1304558.587294425</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283203</v>
+        <v>416855.1052283202</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>104.8347925401696</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>373.5689935409296</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>109.9022384814642</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>105.7580505000005</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.4571321610379</v>
+        <v>370.0648965483574</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>8.04170917992572</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>217.091419992848</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>195.3053214965513</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>111.9441039100334</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>46.81382800565974</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701328</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>60.25690685266583</v>
       </c>
       <c r="H13" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805175659</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>210.595062677237</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833816</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>69.8286381302724</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.70843787977265</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>71.79687029691033</v>
       </c>
       <c r="U25" t="n">
-        <v>64.91921363453658</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>59.44001103519371</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>48.85497112745768</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>12.74007641194023</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>45.16086499484972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>142.8873577254021</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204827</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.836054204827</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1321.167210201447</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
         <v>1378.708694614559</v>
@@ -4400,16 +4400,16 @@
         <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
@@ -4421,7 +4421,7 @@
         <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
         <v>2857.464672486467</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1894.888574395592</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C4" t="n">
-        <v>1725.952391467685</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>1575.83575205535</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178696</v>
+        <v>1538.951893036482</v>
       </c>
       <c r="U4" t="n">
-        <v>2814.73633930434</v>
+        <v>1249.849026162126</v>
       </c>
       <c r="V4" t="n">
-        <v>2814.73633930434</v>
+        <v>995.1645379562392</v>
       </c>
       <c r="W4" t="n">
-        <v>2525.319169267379</v>
+        <v>705.7473679192786</v>
       </c>
       <c r="X4" t="n">
-        <v>2297.329618369362</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="Y4" t="n">
-        <v>2076.537039225832</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>553.2677753977071</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>384.3315924698002</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1919.171609522911</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1727.485725349738</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1727.485725349738</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="U7" t="n">
-        <v>1438.382858475381</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V7" t="n">
-        <v>1183.698370269494</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W7" t="n">
-        <v>1183.698370269494</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>955.7088193714769</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y7" t="n">
-        <v>734.9162402279468</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1458.811090838975</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C8" t="n">
-        <v>1089.848573898563</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D8" t="n">
-        <v>1089.848573898563</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>1089.848573898563</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>678.862669108956</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>263.7902189539524</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3006.553221559016</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2675.490334215445</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2322.72167894533</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878909</v>
+        <v>1949.255920684251</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.410930903097</v>
+        <v>1559.116588708439</v>
       </c>
     </row>
     <row r="9">
@@ -4877,16 +4877,16 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>410.1326375818733</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>410.1326375818733</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>260.0159981695375</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>260.0159981695375</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>260.0159981695375</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>260.0159981695375</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>113.7988113873953</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>812.5736815556431</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>591.781102412113</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5032,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5059,31 +5059,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2223.769289033211</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998291</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998291</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5323,7 +5323,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913851</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400667</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121598</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121598</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121598</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121598</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703064</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>634.5603720565533</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797186</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2376.429105670894</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5892,22 +5892,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3200.825397924056</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>3031.889214996149</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>2881.772575583813</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>2733.85948200142</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.96953450351</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4440.932614305899</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U25" t="n">
-        <v>4375.35765103869</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V25" t="n">
-        <v>4120.673162832803</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W25" t="n">
-        <v>3831.255992795843</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>3603.266441897826</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>3382.473862754296</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>366.9636532421608</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
@@ -7177,7 +7177,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3342.537229081859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3342.537229081859</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2235.58671546357</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2015.985250486511</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1726.910023830708</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>105.267231439603</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5862749664508</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405122</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>41.54258064659101</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823101</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>127.7255247667965</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="U25" t="n">
-        <v>221.2652607547076</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>86.99395161137546</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.6938862346289</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5487903941874</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>203.6630665685113</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>38.1389282762425</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837041</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837043</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837043</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837041</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837041</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
@@ -26346,13 +26346,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="N2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140035</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89744.12305813257</v>
+      </c>
+      <c r="C4" t="n">
         <v>89744.12305813254</v>
       </c>
-      <c r="C4" t="n">
-        <v>89744.12305813246</v>
-      </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1033797.747428549</v>
+        <v>-1033797.747428548</v>
       </c>
       <c r="C6" t="n">
-        <v>294946.9982990442</v>
+        <v>294946.9982990443</v>
       </c>
       <c r="D6" t="n">
-        <v>294946.9982990442</v>
+        <v>294946.9982990441</v>
       </c>
       <c r="E6" t="n">
-        <v>47195.87989596005</v>
+        <v>46848.50064160345</v>
       </c>
       <c r="F6" t="n">
-        <v>372608.3417033156</v>
+        <v>372260.9624489583</v>
       </c>
       <c r="G6" t="n">
-        <v>372608.3417033151</v>
+        <v>372260.9624489583</v>
       </c>
       <c r="H6" t="n">
-        <v>372608.341703315</v>
+        <v>372260.9624489582</v>
       </c>
       <c r="I6" t="n">
-        <v>372608.3417033154</v>
+        <v>372260.9624489583</v>
       </c>
       <c r="J6" t="n">
-        <v>155077.1393060379</v>
+        <v>154729.760051681</v>
       </c>
       <c r="K6" t="n">
-        <v>372608.3417033153</v>
+        <v>372260.9624489583</v>
       </c>
       <c r="L6" t="n">
-        <v>372608.3417033153</v>
+        <v>372260.9624489582</v>
       </c>
       <c r="M6" t="n">
-        <v>287553.3137678036</v>
+        <v>287205.9345134465</v>
       </c>
       <c r="N6" t="n">
-        <v>372608.3417033153</v>
+        <v>372260.9624489583</v>
       </c>
       <c r="O6" t="n">
-        <v>372608.3417033151</v>
+        <v>372260.9624489584</v>
       </c>
       <c r="P6" t="n">
-        <v>372608.3417033152</v>
+        <v>372260.9624489583</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>249.8482490805134</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>12.66894511512402</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>36.53172416510499</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>113.7908987761687</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2767095024427</v>
+        <v>12.66894511512317</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>80.89044349012161</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>2.457529283321207</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>99.30244289076916</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>139.0510680488686</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>49.53859240417835</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28553,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>466.5925882502531</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>742.9354859824772</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>533.6019216798002</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862119</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742437</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,10 +32788,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>287.9685048518523</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>677.2750468965965</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34143,7 +34143,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>611.5937738991439</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>395.047541899926</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641936</v>
@@ -35977,16 +35977,16 @@
         <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>150.1270658774933</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>535.1410129745782</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1304558.587294425</v>
+        <v>1306319.11759721</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283202</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>8.751194497888495</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>373.5689935409296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>114.1627038799793</v>
       </c>
       <c r="T4" t="n">
-        <v>105.7580505000005</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370.0648965483574</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>195.7072339319596</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>217.091419992848</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680975</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>111.9441039100334</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695889</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758885</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>60.25690685266583</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695798</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>104.89138199998</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>210.595062677237</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>104.891381999979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>69.8286381302724</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5334195528347</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>71.79687029691033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>149.2351784782012</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2845,13 +2845,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>12.74007641194023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>48.47457675531665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.8873577254021</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>206.7582264966179</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>1995.741330469122</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1626.77881352871</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y2" t="n">
-        <v>1321.167210201447</v>
+        <v>2382.341170533244</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
         <v>1378.708694614559</v>
@@ -4400,16 +4400,16 @@
         <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
@@ -4421,7 +4421,7 @@
         <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
         <v>2857.464672486467</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7578170212613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1811.978685583463</v>
       </c>
       <c r="T4" t="n">
-        <v>1538.951893036482</v>
+        <v>1590.212070152989</v>
       </c>
       <c r="U4" t="n">
-        <v>1249.849026162126</v>
+        <v>1301.109203278633</v>
       </c>
       <c r="V4" t="n">
-        <v>995.1645379562392</v>
+        <v>1046.424715072746</v>
       </c>
       <c r="W4" t="n">
-        <v>705.7473679192786</v>
+        <v>757.0075450357853</v>
       </c>
       <c r="X4" t="n">
-        <v>477.7578170212613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.7578170212613</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.5673701373257</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C5" t="n">
         <v>934.5673701373257</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3017.631078457519</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2764.100601731356</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2433.037714387785</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1708.010285469454</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1708.010285469454</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.325797263567</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>935.919076328589</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1264971850588</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1559.116588708439</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C8" t="n">
-        <v>1190.154071768027</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>236.3260682181405</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3006.553221559016</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2675.490334215445</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2322.72167894533</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>1949.255920684251</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y8" t="n">
-        <v>1559.116588708439</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4953,13 +4953,13 @@
         <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5032,49 +5032,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756268</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468477</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.175106640328</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.55359426688</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793924</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033211</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>580.8993044876706</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D13" t="n">
-        <v>449.4852666057155</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>301.5721730233224</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>154.6822255254121</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614405</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>762.5477693179104</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756268</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468477</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.55359426688</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>555.8158034133954</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>513.853600740073</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>513.853600740073</v>
       </c>
       <c r="E16" t="n">
         <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038347</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>958.2568473871653</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>737.4642682436352</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>366.9636532421617</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>199.7675539570417</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2376.429105670894</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1095.661204897168</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>984.5467179762953</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1166.195182806535</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
         <v>402.7245934908938</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="29">
@@ -6457,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6603,22 +6603,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6691,13 +6691,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7119,19 +7119,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
         <v>1202.091371290588</v>
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433587</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>719.5738700011939</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>550.637687073287</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1639.421634909942</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1350.004464872981</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1122.014913974964</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.2223348314336</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>552.3777707160738</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>383.4415877881669</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>383.4415877881669</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2235.58671546357</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2015.985250486511</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1726.910023830708</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V46" t="n">
-        <v>1472.225535624822</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1182.808365587861</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>954.8188146898436</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>734.0262355463135</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>125.505489761039</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>105.267231439603</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>41.54258064658916</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>41.54258064659101</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>35.40333084624481</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>31.71340154579318</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>133.6938862346289</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>203.6630665685113</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>38.1389282762425</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>79.42624789262624</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937977.6930837041</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837043</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837043</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937977.6930837041</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837044</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937977.6930837041</v>
+        <v>937977.6930837044</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837043</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>937977.6930837042</v>
+        <v>937977.6930837044</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.959814004</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140039</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140037</v>
@@ -26337,16 +26337,16 @@
         <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>294946.9982990443</v>
       </c>
       <c r="D6" t="n">
-        <v>294946.9982990441</v>
+        <v>294946.9982990442</v>
       </c>
       <c r="E6" t="n">
-        <v>46848.50064160345</v>
+        <v>47161.14197052378</v>
       </c>
       <c r="F6" t="n">
-        <v>372260.9624489583</v>
+        <v>372573.6037778798</v>
       </c>
       <c r="G6" t="n">
-        <v>372260.9624489583</v>
+        <v>372573.60377788</v>
       </c>
       <c r="H6" t="n">
-        <v>372260.9624489582</v>
+        <v>372573.6037778797</v>
       </c>
       <c r="I6" t="n">
-        <v>372260.9624489583</v>
+        <v>372573.6037778799</v>
       </c>
       <c r="J6" t="n">
-        <v>154729.760051681</v>
+        <v>155042.4013806023</v>
       </c>
       <c r="K6" t="n">
-        <v>372260.9624489583</v>
+        <v>372573.6037778796</v>
       </c>
       <c r="L6" t="n">
-        <v>372260.9624489582</v>
+        <v>372573.6037778795</v>
       </c>
       <c r="M6" t="n">
-        <v>287205.9345134465</v>
+        <v>287518.5758423674</v>
       </c>
       <c r="N6" t="n">
-        <v>372260.9624489583</v>
+        <v>372573.6037778796</v>
       </c>
       <c r="O6" t="n">
-        <v>372260.9624489584</v>
+        <v>372573.6037778796</v>
       </c>
       <c r="P6" t="n">
-        <v>372260.9624489583</v>
+        <v>372573.6037778796</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483764</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>345.9318471227945</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.66894511512402</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>75.60632145146261</v>
       </c>
       <c r="T4" t="n">
-        <v>113.7908987761687</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.66894511512317</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>8.210736207660574</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>2.457529283321207</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>126.491952119223</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27906,16 +27906,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>139.0510680488686</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>339.3493584601573</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P12" t="n">
-        <v>466.5925882502531</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>446.0127311990622</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>200.7949786802831</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P12" t="n">
-        <v>332.6181808359229</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>303.8786972770438</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
